--- a/migration/ArtifactServicesStress/Runs.xlsx
+++ b/migration/ArtifactServicesStress/Runs.xlsx
@@ -29,7 +29,152 @@
     <author>John Erickson</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+   Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug0.RacePutAndRemoveRef threw exception:
+Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore+BlobMetadataContentionException: Could not cleanup metadata after 100 attempts.
+Stack Trace:
+    at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CleanupMetadataAsync&gt;d__46.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 823
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CheckForDeleteAsync&gt;d__45.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\
+PlatformBlobStore.cs:line 771
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;RemoveReferencesAsync&gt;d__44.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 756
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass23_1.&lt;&lt;RemoveReferences&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\Blob
+Store\Service\Server\PlatformBlobStore.cs:line 193
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobSt
+ore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.RemoveReferences(IVssRequestContext requestContext, IDictionary`2 referenceIdsGroupedBy
+BlobIds) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 210
+   at Microsoft.VisualStudio.Services.BlobStore.Server.Common.BlobStoreExtensions.RemoveReference(IBlobStore blobStore, IVssRequestContext requestContext, BlobI
+dentifier blobId, String referenceId) in D:\src\Artifact2\src\BlobStore\ServiceShared\Server.Common\BlobStoreExtensions.cs:line 32
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 651
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Test Name: RacePutAndRemoveRef
+Test FullName: Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug2.RacePutAndRemoveRef
+Test Source: D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs : line 481
+Test Outcome: Failed
+Test Duration: 0:12:43.9910594
+Result StackTrace: 
+at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CleanupMetadataAsync&gt;d__46.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 823
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CheckForDeleteAsync&gt;d__45.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 771
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;RemoveReferencesAsync&gt;d__44.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 756
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass23_1.&lt;&lt;RemoveReferences&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 193
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobStore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.RemoveReferences(IVssRequestContext requestContext, IDictionary`2 referenceIdsGroupedByBlobIds) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 210
+   at Microsoft.VisualStudio.Services.BlobStore.Server.Common.BlobStoreExtensions.RemoveReference(IBlobStore blobStore, IVssRequestContext requestContext, BlobIdentifier blobId, String referenceId) in D:\src\Artifact2\src\BlobStore\ServiceShared\Server.Common\BlobStoreExtensions.cs:line 32
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 651
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+Result Message: 
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug2.RacePutAndRemoveRef threw exception: 
+Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore+BlobMetadataContentionException: Could not cleanup metadata after 100 attempts.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,12 +260,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Test Name: RacePutAndRemoveRef
+Test FullName: Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug11.RacePutAndRemoveRef
+Test Source: D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs : line 481
+Test Outcome: Failed
+Test Duration: 0:16:30.361526
+Result StackTrace: 
+at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+Result Message: Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug11 TryRefSuccess:75 TryRefFail:15 Refs:1
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Iterations</t>
   </si>
@@ -177,6 +368,18 @@
   </si>
   <si>
     <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>TestFile</t>
+  </si>
+  <si>
+    <t>jerick_JERICK-DEBUG 2015-09-18 23_41_53.trx</t>
+  </si>
+  <si>
+    <t>Bugless</t>
   </si>
 </sst>
 </file>
@@ -507,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,15 +721,18 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,8 +742,11 @@
       <c r="C2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -547,8 +756,11 @@
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -556,102 +768,199 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>

--- a/migration/ArtifactServicesStress/Runs.xlsx
+++ b/migration/ArtifactServicesStress/Runs.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -310,8 +311,903 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John Erickson</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug0.RacePutAndRemoveRef threw exception:
+System.AggregateException: One or more errors occurred. ---&gt; Microsoft.WindowsAzure.Storage.StorageException: The remote server returned an error: (412) Precond
+ition Failed. ---&gt; System.Net.WebException: The remote server returned an error: (412) Precondition Failed.
+    at Microsoft.WindowsAzure.Storage.Table.Protocol.TableOperationHttpResponseParsers.TableOperationPreProcess(TableResult result, TableOperation operation, Ht
+tpWebResponse resp, Exception ex)
+   at Microsoft.WindowsAzure.Storage.Table.TableOperation.&lt;&gt;c__DisplayClass9.&lt;DeleteImpl&gt;b__8(RESTCommand`1 cmd, HttpWebResponse resp, Exception ex, OperationCo
+ntext ctx)
+   at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndGetResponse[T](IAsyncResult getResponseResult)
+ --- End of inner exception stack trace ---
+    at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndExecuteAsync[T](IAsyncResult result)
+   at Microsoft.WindowsAzure.Storage.Table.CloudTable.EndExecute(IAsyncResult asyncResult)
+   at Microsoft.WindowsAzure.Storage.Core.Util.AsyncExtensions.&lt;&gt;c__DisplayClass1`1.&lt;CreateCallback&gt;b__0(IAsyncResult ar)
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.AzureCloudTableAdapter.&lt;AzurePerformanceCountDecoratorAsync&gt;d__16`1.MoveNext() in D:\src\Artifact2\sr
+c\ArtifactServices\ServiceShared\Server.Azure\AzureCloudTableAdapter.cs:line 119
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass6_0.&lt;&lt;CleanupAsync&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.c
+s:line 234
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass5_0.&lt;&lt;WalkTableInParallel&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigrating
+Table.cs:line 149
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;CleanupAsync&gt;d__6.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 232
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;MigrateAsync&gt;d__7.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 284
+ --- End of inner exception stack trace ---
+    at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout, CancellationToken cancellationToken)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks)
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.ShardingAzureCloudTableClientFactory.WorkOnRebalance() in D:\src\Artifact2\src\ArtifactServices\Servi
+ceShared\Server.Azure\ShardingAzureCloudTableClientFactory.cs:line 708
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTests.&lt;MigrateAsync&gt;b__8_0() in D:\src\Artifact2\src\BlobStore\Serv
+ice\Server.L0.Tests\BlobStoreServiceTests.cs:line 346
+   at System.Threading.Tasks.Task.InnerInvoke()
+   at System.Threading.Tasks.Task.Execute()
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug0
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug0.RacePutAndRemoveRef threw exception:
+System.AggregateException: One or more errors occurred. ---&gt; Microsoft.WindowsAzure.Storage.StorageException: The remote server returned an error: (400) Bad Req
+uest. ---&gt; System.Net.WebException: The remote server returned an error: (400) Bad Request.
+    at Microsoft.WindowsAzure.Storage.Shared.Protocol.HttpResponseParsers.ProcessExpectedStatusCodeNoException[T](HttpStatusCode expectedStatusCode, HttpStatusC
+ode actualStatusCode, T retVal, StorageCommandBase`1 cmd, Exception ex)
+   at Microsoft.WindowsAzure.Storage.Blob.CloudBlockBlob.&lt;&gt;c__DisplayClass39.&lt;PutBlobImpl&gt;b__38(RESTCommand`1 cmd, HttpWebResponse resp, Exception ex, Operation
+Context ctx)
+   at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndGetResponse[T](IAsyncResult getResponseResult)
+ --- End of inner exception stack trace ---
+    at Microsoft.WindowsAzure.Storage.Core.Util.StorageAsyncResult`1.End()
+   at Microsoft.WindowsAzure.Storage.Blob.CloudBlockBlob.EndUploadText(IAsyncResult asyncResult)
+   at Microsoft.WindowsAzure.Storage.Core.Util.AsyncExtensions.&lt;&gt;c__DisplayClass4.&lt;CreateCallbackVoid&gt;b__3(IAsyncResult ar)
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.ConfigurationService.&lt;PushConfigurationAsync&gt;d__13.MoveNext() in D:\src\Artifact2\src\ArtifactService
+s\ServiceShared\Server.Azure\ShardingAzureCloudTableClientFactory.cs:line 300
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;MigrateAsync&gt;d__7.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 275
+ --- End of inner exception stack trace ---
+    at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout, CancellationToken cancellationToken)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks)
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.ShardingAzureCloudTableClientFactory.WorkOnRebalance() in D:\src\Artifact2\src\ArtifactServices\Servi
+ceShared\Server.Azure\ShardingAzureCloudTableClientFactory.cs:line 708
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTests.&lt;MigrateAsync&gt;b__8_0() in D:\src\Artifact2\src\BlobStore\Serv
+ice\Server.L0.Tests\BlobStoreServiceTests.cs:line 346
+   at System.Threading.Tasks.Task.InnerInvoke()
+   at System.Threading.Tasks.Task.Execute()
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 487
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug0
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug0.RacePutAndRemoveRef threw exception:
+System.AggregateException: One or more errors occurred. ---&gt; Microsoft.WindowsAzure.Storage.StorageException: The remote server returned an error: (412) Precond
+ition Failed. ---&gt; System.Net.WebException: The remote server returned an error: (412) Precondition Failed.
+    at Microsoft.WindowsAzure.Storage.Table.Protocol.TableOperationHttpResponseParsers.TableOperationPreProcess(TableResult result, TableOperation operation, Ht
+tpWebResponse resp, Exception ex)
+   at Microsoft.WindowsAzure.Storage.Table.TableOperation.&lt;&gt;c__DisplayClass9.&lt;DeleteImpl&gt;b__8(RESTCommand`1 cmd, HttpWebResponse resp, Exception ex, OperationCo
+ntext ctx)
+   at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndGetResponse[T](IAsyncResult getResponseResult)
+ --- End of inner exception stack trace ---
+    at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndExecuteAsync[T](IAsyncResult result)
+   at Microsoft.WindowsAzure.Storage.Table.CloudTable.EndExecute(IAsyncResult asyncResult)
+   at Microsoft.WindowsAzure.Storage.Core.Util.AsyncExtensions.&lt;&gt;c__DisplayClass1`1.&lt;CreateCallback&gt;b__0(IAsyncResult ar)
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.AzureCloudTableAdapter.&lt;AzurePerformanceCountDecoratorAsync&gt;d__16`1.MoveNext() in D:\src\Artifact2\sr
+c\ArtifactServices\ServiceShared\Server.Azure\AzureCloudTableAdapter.cs:line 119
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass6_0.&lt;&lt;CleanupAsync&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.c
+s:line 234
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass5_0.&lt;&lt;WalkTableInParallel&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigrating
+Table.cs:line 149
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;CleanupAsync&gt;d__6.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 232
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;MigrateAsync&gt;d__7.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 284
+ --- End of inner exception stack trace ---
+    at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout, CancellationToken cancellationToken)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks)
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.ShardingAzureCloudTableClientFactory.WorkOnRebalance() in D:\src\Artifact2\src\ArtifactServices\Servi
+ceShared\Server.Azure\ShardingAzureCloudTableClientFactory.cs:line 708
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTests.&lt;MigrateAsync&gt;b__8_0() in D:\src\Artifact2\src\BlobStore\Serv
+ice\Server.L0.Tests\BlobStoreServiceTests.cs:line 346
+   at System.Threading.Tasks.Task.InnerInvoke()
+   at System.Threading.Tasks.Task.Execute()
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 487
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug1
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug1 TryRefSuccess:4 TryRefFail:5 Refs:2
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug2
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug2 TryRefSuccess:3 TryRefFail:5 Refs:1
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug3
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug3 TryRefSuccess:5 TryRefFail:5 Refs:1
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug3
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug3.RacePutAndRemoveRef threw exception:
+Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore+BlobMetadataContentionException: Could not cleanup metadata after 1000 attempts.
+    at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CleanupMetadataAsync&gt;d__46.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 823
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;PutSingleBlockBlobAndReferenceAsync&gt;d__49.MoveNext() in D:\src\Artifact2\src\BlobStore
+\Service\Server\PlatformBlobStore.cs:line 972
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass50_0.&lt;&lt;PutBlobAndReferenceAsync&gt;b__0&gt;d.MoveNext() in D:\src\Artifact2\
+src\BlobStore\Service\Server\PlatformBlobStore.cs:line 1011
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.VsoHash.&lt;&gt;c__DisplayClass32_0.&lt;&lt;WalkSingleBlockBlobAsync&gt;b__0&gt;d.MoveNext() in D:\src\Artifact2\src\Artifa
+ctServices\Shared\BlobStore.Common\VsoHash.cs:line 471
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.VsoHash.&lt;ReadBlockAsync&gt;d__27.MoveNext() in D:\src\Artifact2\src\ArtifactServices\Shared\BlobStore.Common
+\VsoHash.cs:line 296
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.VsoHash.&lt;WalkBlocksAsync&gt;d__20.MoveNext() in D:\src\Artifact2\src\ArtifactServices\Shared\BlobStore.Commo
+n\VsoHash.cs:line 117
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;PutBlobAndReferenceAsync&gt;d__50.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Se
+rver\PlatformBlobStore.cs:line 1006
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobSt
+ore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.PutBlobAndReference(IVssRequestContext requestContext, BlobIdentifier blobId, Stream bl
+ob, String referenceId) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 335
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.PutTestContent(Stream blobStream, BlobIdentifier blobId, String refId) i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 675
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 636
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug4
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug4 TryRefSuccess:10 TryRefFail:5 Refs:9
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug5
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug5.RacePutAndRemoveRef threw exception:
+System.ArgumentException: Delete requires an ETag (which may be the '*' wildcard).
+    at Microsoft.WindowsAzure.Storage.Table.TableOperation.Delete(ITableEntity entity)
+   at Migration.MigratingTable.TranslateOperationForNewTable(TableOperation op, MTableEntity existingEntity, Boolean leaveTombstones, TableOperation&amp; newOp, Nul
+lable`1&amp; errorCode) in D:\src\Artifact2\src\Kiwi\library\Migration\MigratingTable.cs:line 439
+   at Migration.MigratingTable.&lt;ExecuteBatchOnNewTableAsync&gt;d__23.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MigratingTable.cs:line 541
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MigratingTable.&lt;ExecuteBatchAsync&gt;d__24.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MigratingTable.cs:line 619
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.AzureStorage.AzureTableBlobMetadataProvider.&lt;CreateTableWhileNotFoundExceptionAsync&gt;d__15`1.MoveNext() in D:\src
+\Artifact2\src\BlobStore\Service\Storage\AzureTableBlobMetadataProvider.cs:line 304
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.AzureStorage.AzureTableBlobMetadataProvider.&lt;RunBatchOperationAsync&gt;d__19.MoveNext() in D:\src\Artifact2\src\Blo
+bStore\Service\Storage\AzureTableBlobMetadataProvider.cs:line 511
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.AzureStorage.AzureTableBlobMetadataProvider.&lt;RemoveReferencesAsync&gt;d__13.MoveNext() in D:\src\Artifact2\src\Blob
+Store\Service\Storage\AzureTableBlobMetadataProvider.cs:line 266
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;RemoveReferencesAsync&gt;d__44.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 755
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass23_1.&lt;&lt;RemoveReferences&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\Blob
+Store\Service\Server\PlatformBlobStore.cs:line 193
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobSt
+ore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.RemoveReferences(IVssRequestContext requestContext, IDictionary`2 referenceIdsGroupedBy
+BlobIds) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 210
+   at Microsoft.VisualStudio.Services.BlobStore.Server.Common.BlobStoreExtensions.RemoveReference(IBlobStore blobStore, IVssRequestContext requestContext, BlobI
+dentifier blobId, String referenceId) in D:\src\Artifact2\src\BlobStore\ServiceShared\Server.Common\BlobStoreExtensions.cs:line 32
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 651
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug6
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug6.RacePutAndRemoveRef threw exception:
+Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore+BlobMetadataContentionException: Could not cleanup metadata after 1000 attempts.
+    at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CleanupMetadataAsync&gt;d__46.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 823
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CheckForDeleteAsync&gt;d__45.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\
+PlatformBlobStore.cs:line 771
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;RemoveReferencesAsync&gt;d__44.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 756
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass23_1.&lt;&lt;RemoveReferences&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\Blob
+Store\Service\Server\PlatformBlobStore.cs:line 193
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobSt
+ore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.RemoveReferences(IVssRequestContext requestContext, IDictionary`2 referenceIdsGroupedBy
+BlobIds) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 210
+   at Microsoft.VisualStudio.Services.BlobStore.Server.Common.BlobStoreExtensions.RemoveReference(IBlobStore blobStore, IVssRequestContext requestContext, BlobI
+dentifier blobId, String referenceId) in D:\src\Artifact2\src\BlobStore\ServiceShared\Server.Common\BlobStoreExtensions.cs:line 32
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 651
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug6
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug6.RacePutAndRemoveRef threw exception:
+Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore+BlobMetadataContentionException: Could not cleanup metadata after 1000 attempts.
+    at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CleanupMetadataAsync&gt;d__46.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 823
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;CheckForDeleteAsync&gt;d__45.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Server\
+PlatformBlobStore.cs:line 771
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;RemoveReferencesAsync&gt;d__44.MoveNext() in D:\src\Artifact2\src\BlobStore\Service\Serve
+r\PlatformBlobStore.cs:line 756
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.&lt;&gt;c__DisplayClass23_1.&lt;&lt;RemoveReferences&gt;b__3&gt;d.MoveNext() in D:\src\Artifact2\src\Blob
+Store\Service\Server\PlatformBlobStore.cs:line 193
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Common.TaskSafety.SyncResultOnThreadPool(Func`1 taskFunc) in D:\src\Artifact2\src\ArtifactServices\Shared\BlobSt
+ore.Common\TaskExtensions.cs:line 14
+   at Microsoft.VisualStudio.Services.BlobStore.Server.PlatformBlobStore.RemoveReferences(IVssRequestContext requestContext, IDictionary`2 referenceIdsGroupedBy
+BlobIds) in D:\src\Artifact2\src\BlobStore\Service\Server\PlatformBlobStore.cs:line 210
+   at Microsoft.VisualStudio.Services.BlobStore.Server.Common.BlobStoreExtensions.RemoveReference(IBlobStore blobStore, IVssRequestContext requestContext, BlobI
+dentifier blobId, String referenceId) in D:\src\Artifact2\src\BlobStore\ServiceShared\Server.Common\BlobStoreExtensions.cs:line 32
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 651
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug11 TryRefSuccess:7 TryRefFail:8 Refs:1
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug11
+Test method Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug11.RacePutAndRemoveRef threw exception:
+System.AggregateException: One or more errors occurred. ---&gt; Microsoft.WindowsAzure.Storage.StorageException: The remote server returned an error: (412) Precond
+ition Failed. ---&gt; System.Net.WebException: The remote server returned an error: (412) Precondition Failed.
+    at Microsoft.WindowsAzure.Storage.Table.Protocol.TableOperationHttpResponseParsers.TableOperationPreProcess(TableResult result, TableOperation operation, Ht
+tpWebResponse resp, Exception ex)
+   at Microsoft.WindowsAzure.Storage.Table.TableOperation.&lt;&gt;c__DisplayClass9.&lt;DeleteImpl&gt;b__8(RESTCommand`1 cmd, HttpWebResponse resp, Exception ex, OperationCo
+ntext ctx)
+   at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndGetResponse[T](IAsyncResult getResponseResult)
+ --- End of inner exception stack trace ---
+    at Microsoft.WindowsAzure.Storage.Core.Executor.Executor.EndExecuteAsync[T](IAsyncResult result)
+   at Microsoft.WindowsAzure.Storage.Table.CloudTable.EndExecute(IAsyncResult asyncResult)
+   at Microsoft.WindowsAzure.Storage.Core.Util.AsyncExtensions.&lt;&gt;c__DisplayClass1`1.&lt;CreateCallback&gt;b__0(IAsyncResult ar)
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable`1.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.AzureCloudTableAdapter.&lt;AzurePerformanceCountDecoratorAsync&gt;d__16`1.MoveNext() in D:\src\Artifact2\sr
+c\ArtifactServices\ServiceShared\Server.Azure\AzureCloudTableAdapter.cs:line 119
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass6_0.&lt;&lt;CleanupAsync&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.c
+s:line 234
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter`1.GetResult()
+   at Migration.MasterMigratingTable.&lt;&gt;c__DisplayClass5_0.&lt;&lt;WalkTableInParallel&gt;b__1&gt;d.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigrating
+Table.cs:line 149
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;CleanupAsync&gt;d__6.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 232
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Migration.MasterMigratingTable.&lt;MigrateAsync&gt;d__7.MoveNext() in D:\src\Artifact2\src\Kiwi\library\Migration\MasterMigratingTable.cs:line 284
+ --- End of inner exception stack trace ---
+    at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout, CancellationToken cancellationToken)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks, Int32 millisecondsTimeout)
+   at System.Threading.Tasks.Task.WaitAll(Task[] tasks)
+   at Microsoft.VisualStudio.Services.Content.Server.Azure.ShardingAzureCloudTableClientFactory.WorkOnRebalance() in D:\src\Artifact2\src\ArtifactServices\Servi
+ceShared\Server.Azure\ShardingAzureCloudTableClientFactory.cs:line 708
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTests.&lt;MigrateAsync&gt;b__8_0() in D:\src\Artifact2\src\BlobStore\Serv
+ice\Server.L0.Tests\BlobStoreServiceTests.cs:line 346</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Erickson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiveAzureBlobBlobStoreServiceTestsBug11
+Assert.IsNotNull failed. Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.LiveAzureBlobBlobStoreServiceTestsBug11 TryRefSuccess:1 TryRefFail:7 Refs:1
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;&gt;c__DisplayClass24_1.&lt;&lt;RacePutAndRemoveRefIteration&gt;b__3&gt;d.MoveNext() i
+n D:\src\Artifact2\src\BlobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 646
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRefIteration&gt;d__24.MoveNext() in D:\src\Artifact2\src\B
+lobStore\Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 660
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.ConfiguredTaskAwaitable.ConfiguredTaskAwaiter.GetResult()
+   at Microsoft.VisualStudio.Services.BlobStore.Server.L0.Tests.BlobStoreServiceTests`1.&lt;RacePutAndRemoveRef&gt;d__13.MoveNext() in D:\src\Artifact2\src\BlobStore\
+Service\Server.L0.Tests\BlobStoreServiceTests.cs:line 486
+--- End of stack trace from previous location where exception was thrown ---
+   at System.Runtime.CompilerServices.TaskAwaiter.ThrowForNonSuccess(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.HandleNonSuccessAndDebuggerNotification(Task task)
+   at System.Runtime.CompilerServices.TaskAwaiter.GetResult()</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Iterations</t>
   </si>
@@ -380,13 +1276,49 @@
   </si>
   <si>
     <t>Bugless</t>
+  </si>
+  <si>
+    <t>Passes</t>
+  </si>
+  <si>
+    <t>Fail1</t>
+  </si>
+  <si>
+    <t>Fail2</t>
+  </si>
+  <si>
+    <t>Fail3</t>
+  </si>
+  <si>
+    <t>Cleanup retries</t>
+  </si>
+  <si>
+    <t>Delete needs etag</t>
+  </si>
+  <si>
+    <t>Mig Delete 412</t>
+  </si>
+  <si>
+    <t>blob deleted</t>
+  </si>
+  <si>
+    <t>Mig 400</t>
+  </si>
+  <si>
+    <t>Mig delete 412</t>
+  </si>
+  <si>
+    <t>cleanup retries</t>
+  </si>
+  <si>
+    <t>Mig del 412</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +1338,27 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,8 +1381,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,4 +1922,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>299</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/migration/ArtifactServicesStress/Runs.xlsx
+++ b/migration/ArtifactServicesStress/Runs.xlsx
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
